--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,14 @@
       <sz val="16"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -43,12 +51,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -61,12 +84,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -449,15 +478,15 @@
   <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="16.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="16.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="19.5546875" customWidth="1" min="4" max="4"/>
+    <col width="20.6640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,27 +498,27 @@
     </row>
     <row r="2"/>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Diagnosis</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Total Data</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Total Data Training</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Total Data Test</t>
         </is>
@@ -507,10 +536,10 @@
       <c r="C5" t="n">
         <v>285</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>285</v>
       </c>
     </row>
@@ -1994,7 +2023,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
